--- a/Bill_ of_Materials/Merged.xlsx
+++ b/Bill_ of_Materials/Merged.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13035"/>
+    <workbookView windowWidth="13800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392">
   <si>
     <t>ADC</t>
   </si>
@@ -1188,6 +1188,9 @@
   </si>
   <si>
     <t>kínai SMA kukac és könyök</t>
+  </si>
+  <si>
+    <t>PCB</t>
   </si>
 </sst>
 </file>
@@ -1195,10 +1198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1245,20 +1248,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1273,21 +1262,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -1296,25 +1270,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1323,20 +1282,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1351,13 +1296,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1382,6 +1320,71 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1434,13 +1437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,73 +1461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,13 +1503,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,6 +1546,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,13 +1611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,24 +1646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1676,32 +1661,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1730,6 +1694,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1743,148 +1746,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2296,8 +2299,8 @@
   <sheetPr/>
   <dimension ref="A1:BX53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -10337,8 +10340,12 @@
       <c r="BX42" s="2"/>
     </row>
     <row r="43" spans="1:76">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B43" s="2">
+        <v>12400</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>

--- a/Bill_ of_Materials/Merged.xlsx
+++ b/Bill_ of_Materials/Merged.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13800" windowHeight="12615"/>
+    <workbookView windowWidth="28200" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391">
   <si>
     <t>ADC</t>
   </si>
@@ -152,7 +152,7 @@
     <t>3.5nF</t>
   </si>
   <si>
-    <t>Bosch</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>AMP_3</t>
@@ -332,7 +332,7 @@
     <t>64.31pF</t>
   </si>
   <si>
-    <t xml:space="preserve">Bosch </t>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>C46</t>
@@ -1167,9 +1167,6 @@
   </si>
   <si>
     <t>BNC connector</t>
-  </si>
-  <si>
-    <t>bosch</t>
   </si>
   <si>
     <t>lomex passives</t>
@@ -1248,6 +1245,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1277,6 +1281,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1296,6 +1307,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1334,28 +1360,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1385,14 +1390,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,24 +1434,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1474,6 +1453,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,31 +1554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,42 +1603,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1665,6 +1662,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1732,162 +1740,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2299,8 +2296,8 @@
   <sheetPr/>
   <dimension ref="A1:BX53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9942,7 +9939,7 @@
       <c r="BG38" s="2"/>
       <c r="BH38" s="2"/>
       <c r="BI38" s="2" t="s">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="BJ38" s="2"/>
       <c r="BK38" s="2"/>
@@ -9962,7 +9959,7 @@
     </row>
     <row r="39" spans="1:76">
       <c r="A39" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B39" s="2">
         <v>3751</v>
@@ -9994,7 +9991,7 @@
         <v>279</v>
       </c>
       <c r="AA39" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AB39" s="28" t="s">
         <v>25</v>
@@ -10064,7 +10061,7 @@
     </row>
     <row r="40" spans="1:76">
       <c r="A40" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B40" s="2">
         <v>16552</v>
@@ -10094,7 +10091,7 @@
         <v>325</v>
       </c>
       <c r="AA40" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AB40" s="28" t="s">
         <v>25</v>
@@ -10167,7 +10164,7 @@
     </row>
     <row r="41" spans="1:76">
       <c r="A41" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B41" s="2">
         <v>33846</v>
@@ -10249,7 +10246,7 @@
     </row>
     <row r="42" ht="30" spans="1:76">
       <c r="A42" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B42" s="2">
         <v>4500</v>
@@ -10341,7 +10338,7 @@
     </row>
     <row r="43" spans="1:76">
       <c r="A43" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B43" s="2">
         <v>12400</v>
